--- a/estatioapp/app/src/test/java/org/estatio/module/coda/integtests/CODAMappings.xlsx
+++ b/estatioapp/app/src/test/java/org/estatio/module/coda/integtests/CODAMappings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvanderwal\src\github\estatio\estatio\estatioapp\integtests\src\test\java\org\estatio\integtests\capex\coda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/src/estatio-ecp/estatio/estatioapp/app/src/test/java/org/estatio/module/coda/integtests/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30C11F-D735-6E45-84AE-5824C6A09B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="10140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28660" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="1905">
   <si>
     <t>code</t>
   </si>
@@ -5730,13 +5731,19 @@
   </si>
   <si>
     <t>codaElementName</t>
+  </si>
+  <si>
+    <t>Create Charge</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5746,10 +5753,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5778,7 +5793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5791,6 +5806,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6070,24 +6086,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1900</v>
       </c>
@@ -6118,8 +6134,11 @@
       <c r="J1" s="3" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1901</v>
       </c>
@@ -6147,8 +6166,11 @@
       <c r="J2" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>77</v>
       </c>
@@ -6170,8 +6192,11 @@
       <c r="J3" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K3" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>86</v>
       </c>
@@ -6193,8 +6218,11 @@
       <c r="J4" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K4" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>86</v>
       </c>
@@ -6216,8 +6244,11 @@
       <c r="J5" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K5" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>86</v>
       </c>
@@ -6239,8 +6270,11 @@
       <c r="J6" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K6" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>86</v>
       </c>
@@ -6262,8 +6296,11 @@
       <c r="J7" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K7" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
@@ -6285,8 +6322,11 @@
       <c r="J8" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K8" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
@@ -6308,8 +6348,11 @@
       <c r="J9" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K9" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>176</v>
       </c>
@@ -6331,8 +6374,11 @@
       <c r="J10" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K10" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
@@ -6354,8 +6400,11 @@
       <c r="J11" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K11" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
@@ -6377,8 +6426,11 @@
       <c r="J12" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K12" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>176</v>
       </c>
@@ -6400,8 +6452,11 @@
       <c r="J13" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K13" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>226</v>
       </c>
@@ -6423,8 +6478,11 @@
       <c r="J14" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K14" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>226</v>
       </c>
@@ -6446,8 +6504,11 @@
       <c r="J15" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K15" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>226</v>
       </c>
@@ -6469,8 +6530,11 @@
       <c r="J16" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K16" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>226</v>
       </c>
@@ -6492,8 +6556,11 @@
       <c r="J17" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K17" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>226</v>
       </c>
@@ -6515,8 +6582,11 @@
       <c r="J18" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K18" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>226</v>
       </c>
@@ -6538,8 +6608,11 @@
       <c r="J19" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K19" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>226</v>
       </c>
@@ -6561,8 +6634,11 @@
       <c r="J20" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K20" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
@@ -6584,8 +6660,11 @@
       <c r="J21" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K21" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>226</v>
       </c>
@@ -6607,8 +6686,11 @@
       <c r="J22" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K22" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>226</v>
       </c>
@@ -6630,8 +6712,11 @@
       <c r="J23" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K23" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>226</v>
       </c>
@@ -6653,8 +6738,11 @@
       <c r="J24" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K24" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>226</v>
       </c>
@@ -6676,8 +6764,11 @@
       <c r="J25" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K25" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>226</v>
       </c>
@@ -6699,8 +6790,11 @@
       <c r="J26" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K26" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>226</v>
       </c>
@@ -6722,8 +6816,11 @@
       <c r="J27" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K27" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>226</v>
       </c>
@@ -6745,8 +6842,11 @@
       <c r="J28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K28" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>226</v>
       </c>
@@ -6768,8 +6868,11 @@
       <c r="J29" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K29" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
@@ -6791,8 +6894,11 @@
       <c r="J30" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K30" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
@@ -6814,8 +6920,11 @@
       <c r="J31" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K31" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>19</v>
       </c>
@@ -6837,8 +6946,11 @@
       <c r="J32" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K32" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>86</v>
       </c>
@@ -6860,8 +6972,11 @@
       <c r="J33" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K33" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>86</v>
       </c>
@@ -6883,8 +6998,11 @@
       <c r="J34" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K34" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
@@ -6906,8 +7024,11 @@
       <c r="J35" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K35" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>19</v>
       </c>
@@ -6929,8 +7050,11 @@
       <c r="J36" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K36" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
@@ -6952,8 +7076,11 @@
       <c r="J37" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K37" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>86</v>
       </c>
@@ -6975,8 +7102,11 @@
       <c r="J38" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K38" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>19</v>
       </c>
@@ -6998,8 +7128,11 @@
       <c r="J39" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K39" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>86</v>
       </c>
@@ -7021,8 +7154,11 @@
       <c r="J40" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K40" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>86</v>
       </c>
@@ -7044,8 +7180,11 @@
       <c r="J41" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K41" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
@@ -7067,8 +7206,11 @@
       <c r="J42" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K42" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
@@ -7090,8 +7232,11 @@
       <c r="J43" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K43" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>19</v>
       </c>
@@ -7113,8 +7258,11 @@
       <c r="J44" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K44" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>86</v>
       </c>
@@ -7136,8 +7284,11 @@
       <c r="J45" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K45" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>19</v>
       </c>
@@ -7159,8 +7310,11 @@
       <c r="J46" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K46" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>86</v>
       </c>
@@ -7182,41 +7336,44 @@
       <c r="J47" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K47" s="8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="15" x14ac:dyDescent="0.2">
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I59" s="1"/>
     </row>
   </sheetData>
@@ -7226,23 +7383,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G840"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7263,7 +7420,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7284,7 +7441,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -7305,7 +7462,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7326,7 +7483,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -7347,7 +7504,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -7368,7 +7525,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -7389,7 +7546,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -7410,7 +7567,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -7431,7 +7588,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -7452,7 +7609,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -7473,7 +7630,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -7494,7 +7651,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -7515,7 +7672,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -7536,7 +7693,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -7557,7 +7714,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -7578,7 +7735,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -7599,7 +7756,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -7620,7 +7777,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -7641,7 +7798,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -7662,7 +7819,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -7683,7 +7840,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -7704,7 +7861,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -7725,7 +7882,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -7746,7 +7903,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -7767,7 +7924,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -7788,7 +7945,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -7809,7 +7966,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -7830,7 +7987,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -7851,7 +8008,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -7872,7 +8029,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -7893,7 +8050,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -7914,7 +8071,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -7935,7 +8092,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -7956,7 +8113,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -7977,7 +8134,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -7998,7 +8155,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -8019,7 +8176,7 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -8040,7 +8197,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -8061,7 +8218,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -8082,7 +8239,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -8103,7 +8260,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -8124,7 +8281,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -8145,7 +8302,7 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -8166,7 +8323,7 @@
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -8187,7 +8344,7 @@
       </c>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
@@ -8208,7 +8365,7 @@
       </c>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>123</v>
       </c>
@@ -8229,7 +8386,7 @@
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>123</v>
       </c>
@@ -8250,7 +8407,7 @@
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>123</v>
       </c>
@@ -8271,7 +8428,7 @@
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
@@ -8292,7 +8449,7 @@
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
@@ -8313,7 +8470,7 @@
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>123</v>
       </c>
@@ -8334,7 +8491,7 @@
       </c>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>123</v>
       </c>
@@ -8355,7 +8512,7 @@
       </c>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>123</v>
       </c>
@@ -8376,7 +8533,7 @@
       </c>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>123</v>
       </c>
@@ -8397,7 +8554,7 @@
       </c>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
@@ -8418,7 +8575,7 @@
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>123</v>
       </c>
@@ -8439,7 +8596,7 @@
       </c>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>123</v>
       </c>
@@ -8460,7 +8617,7 @@
       </c>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>154</v>
       </c>
@@ -8481,7 +8638,7 @@
       </c>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>158</v>
       </c>
@@ -8502,7 +8659,7 @@
       </c>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>158</v>
       </c>
@@ -8523,7 +8680,7 @@
       </c>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>158</v>
       </c>
@@ -8544,7 +8701,7 @@
       </c>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>158</v>
       </c>
@@ -8565,7 +8722,7 @@
       </c>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>158</v>
       </c>
@@ -8586,7 +8743,7 @@
       </c>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>158</v>
       </c>
@@ -8607,7 +8764,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>158</v>
       </c>
@@ -8628,7 +8785,7 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>177</v>
       </c>
@@ -8649,7 +8806,7 @@
       </c>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>177</v>
       </c>
@@ -8670,7 +8827,7 @@
       </c>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>177</v>
       </c>
@@ -8691,7 +8848,7 @@
       </c>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>177</v>
       </c>
@@ -8712,7 +8869,7 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>177</v>
       </c>
@@ -8733,7 +8890,7 @@
       </c>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>177</v>
       </c>
@@ -8754,7 +8911,7 @@
       </c>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>197</v>
       </c>
@@ -8775,7 +8932,7 @@
       </c>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>197</v>
       </c>
@@ -8796,7 +8953,7 @@
       </c>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>197</v>
       </c>
@@ -8817,7 +8974,7 @@
       </c>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>197</v>
       </c>
@@ -8838,7 +8995,7 @@
       </c>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>197</v>
       </c>
@@ -8859,7 +9016,7 @@
       </c>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>197</v>
       </c>
@@ -8880,7 +9037,7 @@
       </c>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>197</v>
       </c>
@@ -8901,7 +9058,7 @@
       </c>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>218</v>
       </c>
@@ -8922,7 +9079,7 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>222</v>
       </c>
@@ -8943,7 +9100,7 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>222</v>
       </c>
@@ -8964,7 +9121,7 @@
       </c>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>222</v>
       </c>
@@ -8985,7 +9142,7 @@
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>222</v>
       </c>
@@ -9006,7 +9163,7 @@
       </c>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>222</v>
       </c>
@@ -9027,7 +9184,7 @@
       </c>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>240</v>
       </c>
@@ -9048,7 +9205,7 @@
       </c>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>240</v>
       </c>
@@ -9069,7 +9226,7 @@
       </c>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>240</v>
       </c>
@@ -9090,7 +9247,7 @@
       </c>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>240</v>
       </c>
@@ -9111,7 +9268,7 @@
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>240</v>
       </c>
@@ -9132,7 +9289,7 @@
       </c>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>240</v>
       </c>
@@ -9153,7 +9310,7 @@
       </c>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>240</v>
       </c>
@@ -9174,7 +9331,7 @@
       </c>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>240</v>
       </c>
@@ -9195,7 +9352,7 @@
       </c>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>240</v>
       </c>
@@ -9216,7 +9373,7 @@
       </c>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>240</v>
       </c>
@@ -9237,7 +9394,7 @@
       </c>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>240</v>
       </c>
@@ -9258,7 +9415,7 @@
       </c>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>240</v>
       </c>
@@ -9279,7 +9436,7 @@
       </c>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>240</v>
       </c>
@@ -9300,7 +9457,7 @@
       </c>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>240</v>
       </c>
@@ -9321,7 +9478,7 @@
       </c>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>240</v>
       </c>
@@ -9342,7 +9499,7 @@
       </c>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>240</v>
       </c>
@@ -9363,7 +9520,7 @@
       </c>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>240</v>
       </c>
@@ -9384,7 +9541,7 @@
       </c>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>240</v>
       </c>
@@ -9405,7 +9562,7 @@
       </c>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>240</v>
       </c>
@@ -9426,7 +9583,7 @@
       </c>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>240</v>
       </c>
@@ -9447,7 +9604,7 @@
       </c>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>240</v>
       </c>
@@ -9468,7 +9625,7 @@
       </c>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>240</v>
       </c>
@@ -9489,7 +9646,7 @@
       </c>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>240</v>
       </c>
@@ -9510,7 +9667,7 @@
       </c>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>240</v>
       </c>
@@ -9531,7 +9688,7 @@
       </c>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>240</v>
       </c>
@@ -9552,7 +9709,7 @@
       </c>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>240</v>
       </c>
@@ -9573,7 +9730,7 @@
       </c>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>240</v>
       </c>
@@ -9594,7 +9751,7 @@
       </c>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>240</v>
       </c>
@@ -9615,7 +9772,7 @@
       </c>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>240</v>
       </c>
@@ -9636,7 +9793,7 @@
       </c>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>240</v>
       </c>
@@ -9657,7 +9814,7 @@
       </c>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>240</v>
       </c>
@@ -9678,7 +9835,7 @@
       </c>
       <c r="G116" s="4"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>240</v>
       </c>
@@ -9699,7 +9856,7 @@
       </c>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>240</v>
       </c>
@@ -9720,7 +9877,7 @@
       </c>
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>240</v>
       </c>
@@ -9741,7 +9898,7 @@
       </c>
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>240</v>
       </c>
@@ -9762,7 +9919,7 @@
       </c>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -9783,7 +9940,7 @@
       </c>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>240</v>
       </c>
@@ -9804,7 +9961,7 @@
       </c>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>240</v>
       </c>
@@ -9825,7 +9982,7 @@
       </c>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>240</v>
       </c>
@@ -9846,7 +10003,7 @@
       </c>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>240</v>
       </c>
@@ -9867,7 +10024,7 @@
       </c>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>240</v>
       </c>
@@ -9888,7 +10045,7 @@
       </c>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>240</v>
       </c>
@@ -9909,7 +10066,7 @@
       </c>
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>240</v>
       </c>
@@ -9930,7 +10087,7 @@
       </c>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>240</v>
       </c>
@@ -9951,7 +10108,7 @@
       </c>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>240</v>
       </c>
@@ -9972,7 +10129,7 @@
       </c>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>240</v>
       </c>
@@ -9993,7 +10150,7 @@
       </c>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>240</v>
       </c>
@@ -10014,7 +10171,7 @@
       </c>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>240</v>
       </c>
@@ -10035,7 +10192,7 @@
       </c>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>240</v>
       </c>
@@ -10056,7 +10213,7 @@
       </c>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>240</v>
       </c>
@@ -10077,7 +10234,7 @@
       </c>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>240</v>
       </c>
@@ -10098,7 +10255,7 @@
       </c>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>240</v>
       </c>
@@ -10119,7 +10276,7 @@
       </c>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>240</v>
       </c>
@@ -10140,7 +10297,7 @@
       </c>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>240</v>
       </c>
@@ -10161,7 +10318,7 @@
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>240</v>
       </c>
@@ -10182,7 +10339,7 @@
       </c>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>240</v>
       </c>
@@ -10203,7 +10360,7 @@
       </c>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>240</v>
       </c>
@@ -10224,7 +10381,7 @@
       </c>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>240</v>
       </c>
@@ -10245,7 +10402,7 @@
       </c>
       <c r="G143" s="7"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>240</v>
       </c>
@@ -10266,7 +10423,7 @@
       </c>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>240</v>
       </c>
@@ -10287,7 +10444,7 @@
       </c>
       <c r="G145" s="7"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>240</v>
       </c>
@@ -10308,7 +10465,7 @@
       </c>
       <c r="G146" s="7"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>240</v>
       </c>
@@ -10329,7 +10486,7 @@
       </c>
       <c r="G147" s="7"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>240</v>
       </c>
@@ -10350,7 +10507,7 @@
       </c>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>240</v>
       </c>
@@ -10371,7 +10528,7 @@
       </c>
       <c r="G149" s="7"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>240</v>
       </c>
@@ -10392,7 +10549,7 @@
       </c>
       <c r="G150" s="7"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>240</v>
       </c>
@@ -10413,7 +10570,7 @@
       </c>
       <c r="G151" s="7"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>240</v>
       </c>
@@ -10434,7 +10591,7 @@
       </c>
       <c r="G152" s="7"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>240</v>
       </c>
@@ -10455,7 +10612,7 @@
       </c>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>240</v>
       </c>
@@ -10476,7 +10633,7 @@
       </c>
       <c r="G154" s="7"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>240</v>
       </c>
@@ -10497,7 +10654,7 @@
       </c>
       <c r="G155" s="7"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>240</v>
       </c>
@@ -10518,7 +10675,7 @@
       </c>
       <c r="G156" s="7"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>240</v>
       </c>
@@ -10539,7 +10696,7 @@
       </c>
       <c r="G157" s="7"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>240</v>
       </c>
@@ -10560,7 +10717,7 @@
       </c>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>240</v>
       </c>
@@ -10581,7 +10738,7 @@
       </c>
       <c r="G159" s="7"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>240</v>
       </c>
@@ -10602,7 +10759,7 @@
       </c>
       <c r="G160" s="7"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>240</v>
       </c>
@@ -10623,7 +10780,7 @@
       </c>
       <c r="G161" s="7"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>240</v>
       </c>
@@ -10644,7 +10801,7 @@
       </c>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>240</v>
       </c>
@@ -10665,7 +10822,7 @@
       </c>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>240</v>
       </c>
@@ -10686,7 +10843,7 @@
       </c>
       <c r="G164" s="7"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>240</v>
       </c>
@@ -10707,7 +10864,7 @@
       </c>
       <c r="G165" s="7"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>240</v>
       </c>
@@ -10728,7 +10885,7 @@
       </c>
       <c r="G166" s="7"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>240</v>
       </c>
@@ -10749,7 +10906,7 @@
       </c>
       <c r="G167" s="7"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>240</v>
       </c>
@@ -10770,7 +10927,7 @@
       </c>
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>240</v>
       </c>
@@ -10791,7 +10948,7 @@
       </c>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>240</v>
       </c>
@@ -10812,7 +10969,7 @@
       </c>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>240</v>
       </c>
@@ -10833,7 +10990,7 @@
       </c>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>240</v>
       </c>
@@ -10854,7 +11011,7 @@
       </c>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>461</v>
       </c>
@@ -10875,7 +11032,7 @@
       </c>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>461</v>
       </c>
@@ -10896,7 +11053,7 @@
       </c>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>461</v>
       </c>
@@ -10917,7 +11074,7 @@
       </c>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>461</v>
       </c>
@@ -10938,7 +11095,7 @@
       </c>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>461</v>
       </c>
@@ -10959,7 +11116,7 @@
       </c>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>461</v>
       </c>
@@ -10980,7 +11137,7 @@
       </c>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>478</v>
       </c>
@@ -11001,7 +11158,7 @@
       </c>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>478</v>
       </c>
@@ -11022,7 +11179,7 @@
       </c>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>478</v>
       </c>
@@ -11043,7 +11200,7 @@
       </c>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>478</v>
       </c>
@@ -11064,7 +11221,7 @@
       </c>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>478</v>
       </c>
@@ -11085,7 +11242,7 @@
       </c>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>478</v>
       </c>
@@ -11106,7 +11263,7 @@
       </c>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>478</v>
       </c>
@@ -11127,7 +11284,7 @@
       </c>
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>478</v>
       </c>
@@ -11148,7 +11305,7 @@
       </c>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>478</v>
       </c>
@@ -11169,7 +11326,7 @@
       </c>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>478</v>
       </c>
@@ -11190,7 +11347,7 @@
       </c>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>478</v>
       </c>
@@ -11211,7 +11368,7 @@
       </c>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>478</v>
       </c>
@@ -11232,7 +11389,7 @@
       </c>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>478</v>
       </c>
@@ -11253,7 +11410,7 @@
       </c>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>478</v>
       </c>
@@ -11274,7 +11431,7 @@
       </c>
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>478</v>
       </c>
@@ -11295,7 +11452,7 @@
       </c>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>478</v>
       </c>
@@ -11316,7 +11473,7 @@
       </c>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>478</v>
       </c>
@@ -11337,7 +11494,7 @@
       </c>
       <c r="G195" s="4"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>478</v>
       </c>
@@ -11358,7 +11515,7 @@
       </c>
       <c r="G196" s="4"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>478</v>
       </c>
@@ -11379,7 +11536,7 @@
       </c>
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>478</v>
       </c>
@@ -11400,7 +11557,7 @@
       </c>
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>478</v>
       </c>
@@ -11421,7 +11578,7 @@
       </c>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>478</v>
       </c>
@@ -11442,7 +11599,7 @@
       </c>
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>478</v>
       </c>
@@ -11463,7 +11620,7 @@
       </c>
       <c r="G201" s="4"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>478</v>
       </c>
@@ -11484,7 +11641,7 @@
       </c>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>478</v>
       </c>
@@ -11505,7 +11662,7 @@
       </c>
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>478</v>
       </c>
@@ -11526,7 +11683,7 @@
       </c>
       <c r="G204" s="4"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>478</v>
       </c>
@@ -11547,7 +11704,7 @@
       </c>
       <c r="G205" s="4"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>478</v>
       </c>
@@ -11568,7 +11725,7 @@
       </c>
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>478</v>
       </c>
@@ -11589,7 +11746,7 @@
       </c>
       <c r="G207" s="4"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>478</v>
       </c>
@@ -11610,7 +11767,7 @@
       </c>
       <c r="G208" s="4"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>478</v>
       </c>
@@ -11631,7 +11788,7 @@
       </c>
       <c r="G209" s="4"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>478</v>
       </c>
@@ -11652,7 +11809,7 @@
       </c>
       <c r="G210" s="4"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>478</v>
       </c>
@@ -11673,7 +11830,7 @@
       </c>
       <c r="G211" s="4"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>478</v>
       </c>
@@ -11694,7 +11851,7 @@
       </c>
       <c r="G212" s="4"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>478</v>
       </c>
@@ -11715,7 +11872,7 @@
       </c>
       <c r="G213" s="4"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>547</v>
       </c>
@@ -11736,7 +11893,7 @@
       </c>
       <c r="G214" s="4"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>547</v>
       </c>
@@ -11757,7 +11914,7 @@
       </c>
       <c r="G215" s="4"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>547</v>
       </c>
@@ -11778,7 +11935,7 @@
       </c>
       <c r="G216" s="4"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>547</v>
       </c>
@@ -11799,7 +11956,7 @@
       </c>
       <c r="G217" s="4"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>547</v>
       </c>
@@ -11820,7 +11977,7 @@
       </c>
       <c r="G218" s="4"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>547</v>
       </c>
@@ -11841,7 +11998,7 @@
       </c>
       <c r="G219" s="4"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>547</v>
       </c>
@@ -11862,7 +12019,7 @@
       </c>
       <c r="G220" s="4"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>563</v>
       </c>
@@ -11883,7 +12040,7 @@
       </c>
       <c r="G221" s="4"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>567</v>
       </c>
@@ -11904,7 +12061,7 @@
       </c>
       <c r="G222" s="4"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>567</v>
       </c>
@@ -11925,7 +12082,7 @@
       </c>
       <c r="G223" s="4"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>567</v>
       </c>
@@ -11946,7 +12103,7 @@
       </c>
       <c r="G224" s="4"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>567</v>
       </c>
@@ -11967,7 +12124,7 @@
       </c>
       <c r="G225" s="4"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>567</v>
       </c>
@@ -11988,7 +12145,7 @@
       </c>
       <c r="G226" s="4"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>567</v>
       </c>
@@ -12009,7 +12166,7 @@
       </c>
       <c r="G227" s="4"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>567</v>
       </c>
@@ -12030,7 +12187,7 @@
       </c>
       <c r="G228" s="4"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>581</v>
       </c>
@@ -12051,7 +12208,7 @@
       </c>
       <c r="G229" s="4"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>581</v>
       </c>
@@ -12072,7 +12229,7 @@
       </c>
       <c r="G230" s="4"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>581</v>
       </c>
@@ -12093,7 +12250,7 @@
       </c>
       <c r="G231" s="4"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>581</v>
       </c>
@@ -12114,7 +12271,7 @@
       </c>
       <c r="G232" s="4"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>581</v>
       </c>
@@ -12135,7 +12292,7 @@
       </c>
       <c r="G233" s="4"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>581</v>
       </c>
@@ -12156,7 +12313,7 @@
       </c>
       <c r="G234" s="4"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>581</v>
       </c>
@@ -12177,7 +12334,7 @@
       </c>
       <c r="G235" s="4"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>581</v>
       </c>
@@ -12198,7 +12355,7 @@
       </c>
       <c r="G236" s="4"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>581</v>
       </c>
@@ -12219,7 +12376,7 @@
       </c>
       <c r="G237" s="4"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>581</v>
       </c>
@@ -12240,7 +12397,7 @@
       </c>
       <c r="G238" s="4"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>581</v>
       </c>
@@ -12261,7 +12418,7 @@
       </c>
       <c r="G239" s="4"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>581</v>
       </c>
@@ -12282,7 +12439,7 @@
       </c>
       <c r="G240" s="4"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>608</v>
       </c>
@@ -12303,7 +12460,7 @@
       </c>
       <c r="G241" s="4"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>608</v>
       </c>
@@ -12324,7 +12481,7 @@
       </c>
       <c r="G242" s="4"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>608</v>
       </c>
@@ -12345,7 +12502,7 @@
       </c>
       <c r="G243" s="4"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>608</v>
       </c>
@@ -12366,7 +12523,7 @@
       </c>
       <c r="G244" s="4"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>608</v>
       </c>
@@ -12387,7 +12544,7 @@
       </c>
       <c r="G245" s="4"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>621</v>
       </c>
@@ -12408,7 +12565,7 @@
       </c>
       <c r="G246" s="4"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>621</v>
       </c>
@@ -12429,7 +12586,7 @@
       </c>
       <c r="G247" s="4"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>621</v>
       </c>
@@ -12450,7 +12607,7 @@
       </c>
       <c r="G248" s="4"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>621</v>
       </c>
@@ -12471,7 +12628,7 @@
       </c>
       <c r="G249" s="4"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>621</v>
       </c>
@@ -12492,7 +12649,7 @@
       </c>
       <c r="G250" s="4"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>621</v>
       </c>
@@ -12513,7 +12670,7 @@
       </c>
       <c r="G251" s="4"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>621</v>
       </c>
@@ -12534,7 +12691,7 @@
       </c>
       <c r="G252" s="4"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>621</v>
       </c>
@@ -12555,7 +12712,7 @@
       </c>
       <c r="G253" s="4"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>621</v>
       </c>
@@ -12576,7 +12733,7 @@
       </c>
       <c r="G254" s="4"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>621</v>
       </c>
@@ -12597,7 +12754,7 @@
       </c>
       <c r="G255" s="4"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>621</v>
       </c>
@@ -12618,7 +12775,7 @@
       </c>
       <c r="G256" s="4"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>621</v>
       </c>
@@ -12639,7 +12796,7 @@
       </c>
       <c r="G257" s="4"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>621</v>
       </c>
@@ -12660,7 +12817,7 @@
       </c>
       <c r="G258" s="4"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>621</v>
       </c>
@@ -12681,7 +12838,7 @@
       </c>
       <c r="G259" s="4"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>621</v>
       </c>
@@ -12702,7 +12859,7 @@
       </c>
       <c r="G260" s="4"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>621</v>
       </c>
@@ -12723,7 +12880,7 @@
       </c>
       <c r="G261" s="4"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>621</v>
       </c>
@@ -12744,7 +12901,7 @@
       </c>
       <c r="G262" s="4"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>621</v>
       </c>
@@ -12765,7 +12922,7 @@
       </c>
       <c r="G263" s="4"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>621</v>
       </c>
@@ -12786,7 +12943,7 @@
       </c>
       <c r="G264" s="4"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>621</v>
       </c>
@@ -12807,7 +12964,7 @@
       </c>
       <c r="G265" s="4"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>621</v>
       </c>
@@ -12828,7 +12985,7 @@
       </c>
       <c r="G266" s="4"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>621</v>
       </c>
@@ -12849,7 +13006,7 @@
       </c>
       <c r="G267" s="4"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>621</v>
       </c>
@@ -12870,7 +13027,7 @@
       </c>
       <c r="G268" s="4"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>621</v>
       </c>
@@ -12891,7 +13048,7 @@
       </c>
       <c r="G269" s="4"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>621</v>
       </c>
@@ -12912,7 +13069,7 @@
       </c>
       <c r="G270" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>621</v>
       </c>
@@ -12933,7 +13090,7 @@
       </c>
       <c r="G271" s="4"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>621</v>
       </c>
@@ -12954,7 +13111,7 @@
       </c>
       <c r="G272" s="4"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>621</v>
       </c>
@@ -12975,7 +13132,7 @@
       </c>
       <c r="G273" s="4"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>621</v>
       </c>
@@ -12996,7 +13153,7 @@
       </c>
       <c r="G274" s="4"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>621</v>
       </c>
@@ -13017,7 +13174,7 @@
       </c>
       <c r="G275" s="4"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>621</v>
       </c>
@@ -13038,7 +13195,7 @@
       </c>
       <c r="G276" s="4"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>621</v>
       </c>
@@ -13059,7 +13216,7 @@
       </c>
       <c r="G277" s="4"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>621</v>
       </c>
@@ -13080,7 +13237,7 @@
       </c>
       <c r="G278" s="4"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>621</v>
       </c>
@@ -13101,7 +13258,7 @@
       </c>
       <c r="G279" s="4"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>621</v>
       </c>
@@ -13122,7 +13279,7 @@
       </c>
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>621</v>
       </c>
@@ -13143,7 +13300,7 @@
       </c>
       <c r="G281" s="4"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>621</v>
       </c>
@@ -13164,7 +13321,7 @@
       </c>
       <c r="G282" s="4"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>621</v>
       </c>
@@ -13185,7 +13342,7 @@
       </c>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>621</v>
       </c>
@@ -13206,7 +13363,7 @@
       </c>
       <c r="G284" s="4"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>621</v>
       </c>
@@ -13227,7 +13384,7 @@
       </c>
       <c r="G285" s="4"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>621</v>
       </c>
@@ -13248,7 +13405,7 @@
       </c>
       <c r="G286" s="4"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>621</v>
       </c>
@@ -13269,7 +13426,7 @@
       </c>
       <c r="G287" s="4"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>621</v>
       </c>
@@ -13290,7 +13447,7 @@
       </c>
       <c r="G288" s="4"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>621</v>
       </c>
@@ -13311,7 +13468,7 @@
       </c>
       <c r="G289" s="4"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>621</v>
       </c>
@@ -13332,7 +13489,7 @@
       </c>
       <c r="G290" s="4"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>621</v>
       </c>
@@ -13353,7 +13510,7 @@
       </c>
       <c r="G291" s="4"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>621</v>
       </c>
@@ -13374,7 +13531,7 @@
       </c>
       <c r="G292" s="4"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>621</v>
       </c>
@@ -13395,7 +13552,7 @@
       </c>
       <c r="G293" s="4"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>621</v>
       </c>
@@ -13416,7 +13573,7 @@
       </c>
       <c r="G294" s="4"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>621</v>
       </c>
@@ -13437,7 +13594,7 @@
       </c>
       <c r="G295" s="4"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>621</v>
       </c>
@@ -13458,7 +13615,7 @@
       </c>
       <c r="G296" s="4"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>621</v>
       </c>
@@ -13479,7 +13636,7 @@
       </c>
       <c r="G297" s="4"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>621</v>
       </c>
@@ -13500,7 +13657,7 @@
       </c>
       <c r="G298" s="4"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>621</v>
       </c>
@@ -13521,7 +13678,7 @@
       </c>
       <c r="G299" s="4"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>621</v>
       </c>
@@ -13542,7 +13699,7 @@
       </c>
       <c r="G300" s="4"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>621</v>
       </c>
@@ -13563,7 +13720,7 @@
       </c>
       <c r="G301" s="4"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>621</v>
       </c>
@@ -13584,7 +13741,7 @@
       </c>
       <c r="G302" s="4"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>621</v>
       </c>
@@ -13605,7 +13762,7 @@
       </c>
       <c r="G303" s="4"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>621</v>
       </c>
@@ -13626,7 +13783,7 @@
       </c>
       <c r="G304" s="4"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>621</v>
       </c>
@@ -13647,7 +13804,7 @@
       </c>
       <c r="G305" s="4"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>621</v>
       </c>
@@ -13668,7 +13825,7 @@
       </c>
       <c r="G306" s="4"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>621</v>
       </c>
@@ -13689,7 +13846,7 @@
       </c>
       <c r="G307" s="4"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>621</v>
       </c>
@@ -13710,7 +13867,7 @@
       </c>
       <c r="G308" s="4"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>621</v>
       </c>
@@ -13731,7 +13888,7 @@
       </c>
       <c r="G309" s="4"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>621</v>
       </c>
@@ -13752,7 +13909,7 @@
       </c>
       <c r="G310" s="4"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>621</v>
       </c>
@@ -13773,7 +13930,7 @@
       </c>
       <c r="G311" s="4"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>621</v>
       </c>
@@ -13794,7 +13951,7 @@
       </c>
       <c r="G312" s="4"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>621</v>
       </c>
@@ -13815,7 +13972,7 @@
       </c>
       <c r="G313" s="4"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>621</v>
       </c>
@@ -13836,7 +13993,7 @@
       </c>
       <c r="G314" s="4"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>621</v>
       </c>
@@ -13857,7 +14014,7 @@
       </c>
       <c r="G315" s="4"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>621</v>
       </c>
@@ -13878,7 +14035,7 @@
       </c>
       <c r="G316" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>621</v>
       </c>
@@ -13899,7 +14056,7 @@
       </c>
       <c r="G317" s="4"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>621</v>
       </c>
@@ -13920,7 +14077,7 @@
       </c>
       <c r="G318" s="4"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>621</v>
       </c>
@@ -13941,7 +14098,7 @@
       </c>
       <c r="G319" s="4"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>621</v>
       </c>
@@ -13962,7 +14119,7 @@
       </c>
       <c r="G320" s="4"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>621</v>
       </c>
@@ -13983,7 +14140,7 @@
       </c>
       <c r="G321" s="4"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>621</v>
       </c>
@@ -14004,7 +14161,7 @@
       </c>
       <c r="G322" s="4"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>621</v>
       </c>
@@ -14025,7 +14182,7 @@
       </c>
       <c r="G323" s="4"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>621</v>
       </c>
@@ -14046,7 +14203,7 @@
       </c>
       <c r="G324" s="4"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>621</v>
       </c>
@@ -14067,7 +14224,7 @@
       </c>
       <c r="G325" s="4"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>621</v>
       </c>
@@ -14088,7 +14245,7 @@
       </c>
       <c r="G326" s="4"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>621</v>
       </c>
@@ -14109,7 +14266,7 @@
       </c>
       <c r="G327" s="4"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>621</v>
       </c>
@@ -14130,7 +14287,7 @@
       </c>
       <c r="G328" s="4"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>621</v>
       </c>
@@ -14151,7 +14308,7 @@
       </c>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>621</v>
       </c>
@@ -14172,7 +14329,7 @@
       </c>
       <c r="G330" s="4"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>621</v>
       </c>
@@ -14193,7 +14350,7 @@
       </c>
       <c r="G331" s="4"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>621</v>
       </c>
@@ -14214,7 +14371,7 @@
       </c>
       <c r="G332" s="4"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>621</v>
       </c>
@@ -14235,7 +14392,7 @@
       </c>
       <c r="G333" s="4"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>621</v>
       </c>
@@ -14256,7 +14413,7 @@
       </c>
       <c r="G334" s="4"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>621</v>
       </c>
@@ -14277,7 +14434,7 @@
       </c>
       <c r="G335" s="4"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>621</v>
       </c>
@@ -14298,7 +14455,7 @@
       </c>
       <c r="G336" s="4"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>621</v>
       </c>
@@ -14319,7 +14476,7 @@
       </c>
       <c r="G337" s="4"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>621</v>
       </c>
@@ -14340,7 +14497,7 @@
       </c>
       <c r="G338" s="4"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>621</v>
       </c>
@@ -14361,7 +14518,7 @@
       </c>
       <c r="G339" s="4"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>621</v>
       </c>
@@ -14382,7 +14539,7 @@
       </c>
       <c r="G340" s="4"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>621</v>
       </c>
@@ -14403,7 +14560,7 @@
       </c>
       <c r="G341" s="4"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>621</v>
       </c>
@@ -14424,7 +14581,7 @@
       </c>
       <c r="G342" s="4"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>621</v>
       </c>
@@ -14445,7 +14602,7 @@
       </c>
       <c r="G343" s="4"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>621</v>
       </c>
@@ -14466,7 +14623,7 @@
       </c>
       <c r="G344" s="4"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>621</v>
       </c>
@@ -14487,7 +14644,7 @@
       </c>
       <c r="G345" s="4"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>621</v>
       </c>
@@ -14508,7 +14665,7 @@
       </c>
       <c r="G346" s="4"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>621</v>
       </c>
@@ -14529,7 +14686,7 @@
       </c>
       <c r="G347" s="4"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>621</v>
       </c>
@@ -14550,7 +14707,7 @@
       </c>
       <c r="G348" s="4"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>621</v>
       </c>
@@ -14571,7 +14728,7 @@
       </c>
       <c r="G349" s="4"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>621</v>
       </c>
@@ -14592,7 +14749,7 @@
       </c>
       <c r="G350" s="4"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>621</v>
       </c>
@@ -14613,7 +14770,7 @@
       </c>
       <c r="G351" s="4"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>621</v>
       </c>
@@ -14634,7 +14791,7 @@
       </c>
       <c r="G352" s="4"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>621</v>
       </c>
@@ -14655,7 +14812,7 @@
       </c>
       <c r="G353" s="4"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>621</v>
       </c>
@@ -14676,7 +14833,7 @@
       </c>
       <c r="G354" s="4"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>621</v>
       </c>
@@ -14697,7 +14854,7 @@
       </c>
       <c r="G355" s="4"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>621</v>
       </c>
@@ -14718,7 +14875,7 @@
       </c>
       <c r="G356" s="4"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>621</v>
       </c>
@@ -14739,7 +14896,7 @@
       </c>
       <c r="G357" s="4"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>621</v>
       </c>
@@ -14760,7 +14917,7 @@
       </c>
       <c r="G358" s="4"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>621</v>
       </c>
@@ -14781,7 +14938,7 @@
       </c>
       <c r="G359" s="4"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>621</v>
       </c>
@@ -14802,7 +14959,7 @@
       </c>
       <c r="G360" s="4"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>867</v>
       </c>
@@ -14823,7 +14980,7 @@
       </c>
       <c r="G361" s="4"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>867</v>
       </c>
@@ -14844,7 +15001,7 @@
       </c>
       <c r="G362" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>867</v>
       </c>
@@ -14865,7 +15022,7 @@
       </c>
       <c r="G363" s="4"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>867</v>
       </c>
@@ -14886,7 +15043,7 @@
       </c>
       <c r="G364" s="4"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>867</v>
       </c>
@@ -14907,7 +15064,7 @@
       </c>
       <c r="G365" s="4"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>867</v>
       </c>
@@ -14928,7 +15085,7 @@
       </c>
       <c r="G366" s="4"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>867</v>
       </c>
@@ -14949,7 +15106,7 @@
       </c>
       <c r="G367" s="4"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>867</v>
       </c>
@@ -14970,7 +15127,7 @@
       </c>
       <c r="G368" s="4"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>867</v>
       </c>
@@ -14991,7 +15148,7 @@
       </c>
       <c r="G369" s="4"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>867</v>
       </c>
@@ -15012,7 +15169,7 @@
       </c>
       <c r="G370" s="4"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>867</v>
       </c>
@@ -15033,7 +15190,7 @@
       </c>
       <c r="G371" s="4"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>867</v>
       </c>
@@ -15054,7 +15211,7 @@
       </c>
       <c r="G372" s="4"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>867</v>
       </c>
@@ -15075,7 +15232,7 @@
       </c>
       <c r="G373" s="4"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>867</v>
       </c>
@@ -15096,7 +15253,7 @@
       </c>
       <c r="G374" s="4"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>867</v>
       </c>
@@ -15117,7 +15274,7 @@
       </c>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>867</v>
       </c>
@@ -15138,7 +15295,7 @@
       </c>
       <c r="G376" s="4"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>867</v>
       </c>
@@ -15159,7 +15316,7 @@
       </c>
       <c r="G377" s="4"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>867</v>
       </c>
@@ -15180,7 +15337,7 @@
       </c>
       <c r="G378" s="4"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>867</v>
       </c>
@@ -15201,7 +15358,7 @@
       </c>
       <c r="G379" s="4"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>867</v>
       </c>
@@ -15222,7 +15379,7 @@
       </c>
       <c r="G380" s="4"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>867</v>
       </c>
@@ -15243,7 +15400,7 @@
       </c>
       <c r="G381" s="4"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>867</v>
       </c>
@@ -15264,7 +15421,7 @@
       </c>
       <c r="G382" s="4"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>867</v>
       </c>
@@ -15285,7 +15442,7 @@
       </c>
       <c r="G383" s="4"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>867</v>
       </c>
@@ -15306,7 +15463,7 @@
       </c>
       <c r="G384" s="4"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>867</v>
       </c>
@@ -15327,7 +15484,7 @@
       </c>
       <c r="G385" s="4"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>867</v>
       </c>
@@ -15348,7 +15505,7 @@
       </c>
       <c r="G386" s="4"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>920</v>
       </c>
@@ -15369,7 +15526,7 @@
       </c>
       <c r="G387" s="4"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>920</v>
       </c>
@@ -15390,7 +15547,7 @@
       </c>
       <c r="G388" s="4"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>920</v>
       </c>
@@ -15411,7 +15568,7 @@
       </c>
       <c r="G389" s="4"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>920</v>
       </c>
@@ -15432,7 +15589,7 @@
       </c>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>920</v>
       </c>
@@ -15453,7 +15610,7 @@
       </c>
       <c r="G391" s="4"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>920</v>
       </c>
@@ -15474,7 +15631,7 @@
       </c>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>920</v>
       </c>
@@ -15495,7 +15652,7 @@
       </c>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>920</v>
       </c>
@@ -15516,7 +15673,7 @@
       </c>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>920</v>
       </c>
@@ -15537,7 +15694,7 @@
       </c>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>920</v>
       </c>
@@ -15558,7 +15715,7 @@
       </c>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>920</v>
       </c>
@@ -15579,7 +15736,7 @@
       </c>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>920</v>
       </c>
@@ -15600,7 +15757,7 @@
       </c>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>920</v>
       </c>
@@ -15621,7 +15778,7 @@
       </c>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>920</v>
       </c>
@@ -15642,7 +15799,7 @@
       </c>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>920</v>
       </c>
@@ -15663,7 +15820,7 @@
       </c>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>920</v>
       </c>
@@ -15684,7 +15841,7 @@
       </c>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>955</v>
       </c>
@@ -15705,7 +15862,7 @@
       </c>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>955</v>
       </c>
@@ -15726,7 +15883,7 @@
       </c>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>955</v>
       </c>
@@ -15747,7 +15904,7 @@
       </c>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>955</v>
       </c>
@@ -15768,7 +15925,7 @@
       </c>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>955</v>
       </c>
@@ -15789,7 +15946,7 @@
       </c>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>955</v>
       </c>
@@ -15810,7 +15967,7 @@
       </c>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>970</v>
       </c>
@@ -15831,7 +15988,7 @@
       </c>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>970</v>
       </c>
@@ -15852,7 +16009,7 @@
       </c>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>970</v>
       </c>
@@ -15873,7 +16030,7 @@
       </c>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>970</v>
       </c>
@@ -15894,7 +16051,7 @@
       </c>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>970</v>
       </c>
@@ -15915,7 +16072,7 @@
       </c>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>970</v>
       </c>
@@ -15936,7 +16093,7 @@
       </c>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>970</v>
       </c>
@@ -15957,7 +16114,7 @@
       </c>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>970</v>
       </c>
@@ -15978,7 +16135,7 @@
       </c>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>988</v>
       </c>
@@ -15999,7 +16156,7 @@
       </c>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>988</v>
       </c>
@@ -16020,7 +16177,7 @@
       </c>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>988</v>
       </c>
@@ -16041,7 +16198,7 @@
       </c>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>998</v>
       </c>
@@ -16062,7 +16219,7 @@
       </c>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16083,7 +16240,7 @@
       </c>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16104,7 +16261,7 @@
       </c>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16125,7 +16282,7 @@
       </c>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16146,7 +16303,7 @@
       </c>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16167,7 +16324,7 @@
       </c>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16188,7 +16345,7 @@
       </c>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16209,7 +16366,7 @@
       </c>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16230,7 +16387,7 @@
       </c>
       <c r="G428" s="4"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16251,7 +16408,7 @@
       </c>
       <c r="G429" s="4"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16272,7 +16429,7 @@
       </c>
       <c r="G430" s="4"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16293,7 +16450,7 @@
       </c>
       <c r="G431" s="4"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16314,7 +16471,7 @@
       </c>
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16335,7 +16492,7 @@
       </c>
       <c r="G433" s="4"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>1031</v>
       </c>
@@ -16356,7 +16513,7 @@
       </c>
       <c r="G434" s="4"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>1031</v>
       </c>
@@ -16377,7 +16534,7 @@
       </c>
       <c r="G435" s="4"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>1031</v>
       </c>
@@ -16398,7 +16555,7 @@
       </c>
       <c r="G436" s="4"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>1031</v>
       </c>
@@ -16419,7 +16576,7 @@
       </c>
       <c r="G437" s="4"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>1031</v>
       </c>
@@ -16440,7 +16597,7 @@
       </c>
       <c r="G438" s="4"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>1031</v>
       </c>
@@ -16461,7 +16618,7 @@
       </c>
       <c r="G439" s="4"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>1031</v>
       </c>
@@ -16482,7 +16639,7 @@
       </c>
       <c r="G440" s="4"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>1047</v>
       </c>
@@ -16503,7 +16660,7 @@
       </c>
       <c r="G441" s="4"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>1047</v>
       </c>
@@ -16524,7 +16681,7 @@
       </c>
       <c r="G442" s="4"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>1053</v>
       </c>
@@ -16545,7 +16702,7 @@
       </c>
       <c r="G443" s="4"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>1053</v>
       </c>
@@ -16566,7 +16723,7 @@
       </c>
       <c r="G444" s="4"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>1053</v>
       </c>
@@ -16587,7 +16744,7 @@
       </c>
       <c r="G445" s="4"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>1053</v>
       </c>
@@ -16608,7 +16765,7 @@
       </c>
       <c r="G446" s="4"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16629,7 +16786,7 @@
       </c>
       <c r="G447" s="4"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16650,7 +16807,7 @@
       </c>
       <c r="G448" s="4"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16671,7 +16828,7 @@
       </c>
       <c r="G449" s="4"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16692,7 +16849,7 @@
       </c>
       <c r="G450" s="4"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16713,7 +16870,7 @@
       </c>
       <c r="G451" s="4"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16734,7 +16891,7 @@
       </c>
       <c r="G452" s="4"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16755,7 +16912,7 @@
       </c>
       <c r="G453" s="4"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16776,7 +16933,7 @@
       </c>
       <c r="G454" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16797,7 +16954,7 @@
       </c>
       <c r="G455" s="4"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16818,7 +16975,7 @@
       </c>
       <c r="G456" s="4"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16839,7 +16996,7 @@
       </c>
       <c r="G457" s="4"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16860,7 +17017,7 @@
       </c>
       <c r="G458" s="4"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16881,7 +17038,7 @@
       </c>
       <c r="G459" s="4"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16902,7 +17059,7 @@
       </c>
       <c r="G460" s="4"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16923,7 +17080,7 @@
       </c>
       <c r="G461" s="4"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16944,7 +17101,7 @@
       </c>
       <c r="G462" s="4"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16965,7 +17122,7 @@
       </c>
       <c r="G463" s="4"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16986,7 +17143,7 @@
       </c>
       <c r="G464" s="4"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>1064</v>
       </c>
@@ -17007,7 +17164,7 @@
       </c>
       <c r="G465" s="4"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>1064</v>
       </c>
@@ -17028,7 +17185,7 @@
       </c>
       <c r="G466" s="4"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>1064</v>
       </c>
@@ -17049,7 +17206,7 @@
       </c>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>1064</v>
       </c>
@@ -17070,7 +17227,7 @@
       </c>
       <c r="G468" s="4"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17091,7 +17248,7 @@
       </c>
       <c r="G469" s="4"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17112,7 +17269,7 @@
       </c>
       <c r="G470" s="4"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17133,7 +17290,7 @@
       </c>
       <c r="G471" s="4"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17154,7 +17311,7 @@
       </c>
       <c r="G472" s="4"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17175,7 +17332,7 @@
       </c>
       <c r="G473" s="4"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17196,7 +17353,7 @@
       </c>
       <c r="G474" s="4"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17217,7 +17374,7 @@
       </c>
       <c r="G475" s="4"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17238,7 +17395,7 @@
       </c>
       <c r="G476" s="4"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17259,7 +17416,7 @@
       </c>
       <c r="G477" s="4"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17280,7 +17437,7 @@
       </c>
       <c r="G478" s="4"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17301,7 +17458,7 @@
       </c>
       <c r="G479" s="4"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17322,7 +17479,7 @@
       </c>
       <c r="G480" s="4"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17343,7 +17500,7 @@
       </c>
       <c r="G481" s="4"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17364,7 +17521,7 @@
       </c>
       <c r="G482" s="4"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17385,7 +17542,7 @@
       </c>
       <c r="G483" s="4"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17406,7 +17563,7 @@
       </c>
       <c r="G484" s="4"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17427,7 +17584,7 @@
       </c>
       <c r="G485" s="4"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17448,7 +17605,7 @@
       </c>
       <c r="G486" s="4"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17469,7 +17626,7 @@
       </c>
       <c r="G487" s="4"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17490,7 +17647,7 @@
       </c>
       <c r="G488" s="4"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17511,7 +17668,7 @@
       </c>
       <c r="G489" s="4"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17532,7 +17689,7 @@
       </c>
       <c r="G490" s="4"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17553,7 +17710,7 @@
       </c>
       <c r="G491" s="4"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17574,7 +17731,7 @@
       </c>
       <c r="G492" s="4"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17595,7 +17752,7 @@
       </c>
       <c r="G493" s="4"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17616,7 +17773,7 @@
       </c>
       <c r="G494" s="4"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17637,7 +17794,7 @@
       </c>
       <c r="G495" s="4"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17658,7 +17815,7 @@
       </c>
       <c r="G496" s="4"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17679,7 +17836,7 @@
       </c>
       <c r="G497" s="4"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17700,7 +17857,7 @@
       </c>
       <c r="G498" s="4"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17721,7 +17878,7 @@
       </c>
       <c r="G499" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17742,7 +17899,7 @@
       </c>
       <c r="G500" s="4"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17763,7 +17920,7 @@
       </c>
       <c r="G501" s="4"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>1106</v>
       </c>
@@ -17784,7 +17941,7 @@
       </c>
       <c r="G502" s="4"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17805,7 +17962,7 @@
       </c>
       <c r="G503" s="4"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17826,7 +17983,7 @@
       </c>
       <c r="G504" s="4"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17847,7 +18004,7 @@
       </c>
       <c r="G505" s="4"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17868,7 +18025,7 @@
       </c>
       <c r="G506" s="4"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17889,7 +18046,7 @@
       </c>
       <c r="G507" s="4"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17910,7 +18067,7 @@
       </c>
       <c r="G508" s="4"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17931,7 +18088,7 @@
       </c>
       <c r="G509" s="4"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17952,7 +18109,7 @@
       </c>
       <c r="G510" s="4"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17973,7 +18130,7 @@
       </c>
       <c r="G511" s="4"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17994,7 +18151,7 @@
       </c>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18015,7 +18172,7 @@
       </c>
       <c r="G513" s="4"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18036,7 +18193,7 @@
       </c>
       <c r="G514" s="4"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18057,7 +18214,7 @@
       </c>
       <c r="G515" s="4"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18078,7 +18235,7 @@
       </c>
       <c r="G516" s="4"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18099,7 +18256,7 @@
       </c>
       <c r="G517" s="4"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18120,7 +18277,7 @@
       </c>
       <c r="G518" s="4"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18141,7 +18298,7 @@
       </c>
       <c r="G519" s="4"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18162,7 +18319,7 @@
       </c>
       <c r="G520" s="4"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18183,7 +18340,7 @@
       </c>
       <c r="G521" s="4"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18204,7 +18361,7 @@
       </c>
       <c r="G522" s="4"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18225,7 +18382,7 @@
       </c>
       <c r="G523" s="4"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18246,7 +18403,7 @@
       </c>
       <c r="G524" s="4"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18267,7 +18424,7 @@
       </c>
       <c r="G525" s="4"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18288,7 +18445,7 @@
       </c>
       <c r="G526" s="4"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18309,7 +18466,7 @@
       </c>
       <c r="G527" s="4"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18330,7 +18487,7 @@
       </c>
       <c r="G528" s="4"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18351,7 +18508,7 @@
       </c>
       <c r="G529" s="4"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18372,7 +18529,7 @@
       </c>
       <c r="G530" s="4"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18393,7 +18550,7 @@
       </c>
       <c r="G531" s="4"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18414,7 +18571,7 @@
       </c>
       <c r="G532" s="4"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18435,7 +18592,7 @@
       </c>
       <c r="G533" s="4"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18456,7 +18613,7 @@
       </c>
       <c r="G534" s="4"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18477,7 +18634,7 @@
       </c>
       <c r="G535" s="4"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18498,7 +18655,7 @@
       </c>
       <c r="G536" s="4"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18519,7 +18676,7 @@
       </c>
       <c r="G537" s="4"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18540,7 +18697,7 @@
       </c>
       <c r="G538" s="4"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18561,7 +18718,7 @@
       </c>
       <c r="G539" s="4"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18582,7 +18739,7 @@
       </c>
       <c r="G540" s="4"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18603,7 +18760,7 @@
       </c>
       <c r="G541" s="4"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18624,7 +18781,7 @@
       </c>
       <c r="G542" s="4"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18645,7 +18802,7 @@
       </c>
       <c r="G543" s="4"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18666,7 +18823,7 @@
       </c>
       <c r="G544" s="4"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18687,7 +18844,7 @@
       </c>
       <c r="G545" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18708,7 +18865,7 @@
       </c>
       <c r="G546" s="4"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18729,7 +18886,7 @@
       </c>
       <c r="G547" s="4"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18750,7 +18907,7 @@
       </c>
       <c r="G548" s="4"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18771,7 +18928,7 @@
       </c>
       <c r="G549" s="4"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18792,7 +18949,7 @@
       </c>
       <c r="G550" s="4"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18813,7 +18970,7 @@
       </c>
       <c r="G551" s="4"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18834,7 +18991,7 @@
       </c>
       <c r="G552" s="4"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18855,7 +19012,7 @@
       </c>
       <c r="G553" s="4"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18876,7 +19033,7 @@
       </c>
       <c r="G554" s="4"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18897,7 +19054,7 @@
       </c>
       <c r="G555" s="4"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18918,7 +19075,7 @@
       </c>
       <c r="G556" s="4"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18939,7 +19096,7 @@
       </c>
       <c r="G557" s="4"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18960,7 +19117,7 @@
       </c>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18981,7 +19138,7 @@
       </c>
       <c r="G559" s="4"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19002,7 +19159,7 @@
       </c>
       <c r="G560" s="4"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19023,7 +19180,7 @@
       </c>
       <c r="G561" s="4"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19044,7 +19201,7 @@
       </c>
       <c r="G562" s="4"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19065,7 +19222,7 @@
       </c>
       <c r="G563" s="4"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19086,7 +19243,7 @@
       </c>
       <c r="G564" s="4"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19107,7 +19264,7 @@
       </c>
       <c r="G565" s="4"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19128,7 +19285,7 @@
       </c>
       <c r="G566" s="4"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19149,7 +19306,7 @@
       </c>
       <c r="G567" s="4"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19170,7 +19327,7 @@
       </c>
       <c r="G568" s="4"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19191,7 +19348,7 @@
       </c>
       <c r="G569" s="4"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19212,7 +19369,7 @@
       </c>
       <c r="G570" s="4"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19233,7 +19390,7 @@
       </c>
       <c r="G571" s="4"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19254,7 +19411,7 @@
       </c>
       <c r="G572" s="4"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19275,7 +19432,7 @@
       </c>
       <c r="G573" s="4"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19296,7 +19453,7 @@
       </c>
       <c r="G574" s="4"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19317,7 +19474,7 @@
       </c>
       <c r="G575" s="4"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19338,7 +19495,7 @@
       </c>
       <c r="G576" s="4"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19359,7 +19516,7 @@
       </c>
       <c r="G577" s="4"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19380,7 +19537,7 @@
       </c>
       <c r="G578" s="4"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19401,7 +19558,7 @@
       </c>
       <c r="G579" s="4"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19422,7 +19579,7 @@
       </c>
       <c r="G580" s="4"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19443,7 +19600,7 @@
       </c>
       <c r="G581" s="4"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19464,7 +19621,7 @@
       </c>
       <c r="G582" s="4"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19485,7 +19642,7 @@
       </c>
       <c r="G583" s="4"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19506,7 +19663,7 @@
       </c>
       <c r="G584" s="4"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19527,7 +19684,7 @@
       </c>
       <c r="G585" s="4"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19548,7 +19705,7 @@
       </c>
       <c r="G586" s="4"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19569,7 +19726,7 @@
       </c>
       <c r="G587" s="4"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19590,7 +19747,7 @@
       </c>
       <c r="G588" s="4"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19611,7 +19768,7 @@
       </c>
       <c r="G589" s="4"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19632,7 +19789,7 @@
       </c>
       <c r="G590" s="4"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19653,7 +19810,7 @@
       </c>
       <c r="G591" s="4"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19674,7 +19831,7 @@
       </c>
       <c r="G592" s="4"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19695,7 +19852,7 @@
       </c>
       <c r="G593" s="4"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19716,7 +19873,7 @@
       </c>
       <c r="G594" s="4"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19737,7 +19894,7 @@
       </c>
       <c r="G595" s="4"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19758,7 +19915,7 @@
       </c>
       <c r="G596" s="4"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19779,7 +19936,7 @@
       </c>
       <c r="G597" s="4"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19800,7 +19957,7 @@
       </c>
       <c r="G598" s="4"/>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19821,7 +19978,7 @@
       </c>
       <c r="G599" s="4"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19842,7 +19999,7 @@
       </c>
       <c r="G600" s="4"/>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19863,7 +20020,7 @@
       </c>
       <c r="G601" s="4"/>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19884,7 +20041,7 @@
       </c>
       <c r="G602" s="4"/>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19905,7 +20062,7 @@
       </c>
       <c r="G603" s="4"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19926,7 +20083,7 @@
       </c>
       <c r="G604" s="4"/>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19947,7 +20104,7 @@
       </c>
       <c r="G605" s="4"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19968,7 +20125,7 @@
       </c>
       <c r="G606" s="4"/>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>1155</v>
       </c>
@@ -19989,7 +20146,7 @@
       </c>
       <c r="G607" s="4"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20010,7 +20167,7 @@
       </c>
       <c r="G608" s="4"/>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20031,7 +20188,7 @@
       </c>
       <c r="G609" s="4"/>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20052,7 +20209,7 @@
       </c>
       <c r="G610" s="4"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20073,7 +20230,7 @@
       </c>
       <c r="G611" s="4"/>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20094,7 +20251,7 @@
       </c>
       <c r="G612" s="4"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20115,7 +20272,7 @@
       </c>
       <c r="G613" s="4"/>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20136,7 +20293,7 @@
       </c>
       <c r="G614" s="4"/>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20157,7 +20314,7 @@
       </c>
       <c r="G615" s="4"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20178,7 +20335,7 @@
       </c>
       <c r="G616" s="4"/>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20199,7 +20356,7 @@
       </c>
       <c r="G617" s="4"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20220,7 +20377,7 @@
       </c>
       <c r="G618" s="4"/>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20241,7 +20398,7 @@
       </c>
       <c r="G619" s="4"/>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20262,7 +20419,7 @@
       </c>
       <c r="G620" s="4"/>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20283,7 +20440,7 @@
       </c>
       <c r="G621" s="4"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20304,7 +20461,7 @@
       </c>
       <c r="G622" s="4"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20325,7 +20482,7 @@
       </c>
       <c r="G623" s="4"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20346,7 +20503,7 @@
       </c>
       <c r="G624" s="4"/>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20367,7 +20524,7 @@
       </c>
       <c r="G625" s="4"/>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20388,7 +20545,7 @@
       </c>
       <c r="G626" s="4"/>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20409,7 +20566,7 @@
       </c>
       <c r="G627" s="4"/>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20430,7 +20587,7 @@
       </c>
       <c r="G628" s="4"/>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20451,7 +20608,7 @@
       </c>
       <c r="G629" s="4"/>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20472,7 +20629,7 @@
       </c>
       <c r="G630" s="4"/>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20493,7 +20650,7 @@
       </c>
       <c r="G631" s="4"/>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20514,7 +20671,7 @@
       </c>
       <c r="G632" s="4"/>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20535,7 +20692,7 @@
       </c>
       <c r="G633" s="4"/>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20556,7 +20713,7 @@
       </c>
       <c r="G634" s="4"/>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20577,7 +20734,7 @@
       </c>
       <c r="G635" s="4"/>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20598,7 +20755,7 @@
       </c>
       <c r="G636" s="4"/>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20619,7 +20776,7 @@
       </c>
       <c r="G637" s="4"/>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20640,7 +20797,7 @@
       </c>
       <c r="G638" s="4"/>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20661,7 +20818,7 @@
       </c>
       <c r="G639" s="4"/>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20682,7 +20839,7 @@
       </c>
       <c r="G640" s="4"/>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20703,7 +20860,7 @@
       </c>
       <c r="G641" s="4"/>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20724,7 +20881,7 @@
       </c>
       <c r="G642" s="4"/>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20745,7 +20902,7 @@
       </c>
       <c r="G643" s="4"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20766,7 +20923,7 @@
       </c>
       <c r="G644" s="4"/>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20787,7 +20944,7 @@
       </c>
       <c r="G645" s="4"/>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20808,7 +20965,7 @@
       </c>
       <c r="G646" s="4"/>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20829,7 +20986,7 @@
       </c>
       <c r="G647" s="4"/>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20850,7 +21007,7 @@
       </c>
       <c r="G648" s="4"/>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20871,7 +21028,7 @@
       </c>
       <c r="G649" s="4"/>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20892,7 +21049,7 @@
       </c>
       <c r="G650" s="4"/>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20913,7 +21070,7 @@
       </c>
       <c r="G651" s="4"/>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20934,7 +21091,7 @@
       </c>
       <c r="G652" s="4"/>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20955,7 +21112,7 @@
       </c>
       <c r="G653" s="4"/>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20976,7 +21133,7 @@
       </c>
       <c r="G654" s="4"/>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>1155</v>
       </c>
@@ -20997,7 +21154,7 @@
       </c>
       <c r="G655" s="4"/>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21018,7 +21175,7 @@
       </c>
       <c r="G656" s="4"/>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21039,7 +21196,7 @@
       </c>
       <c r="G657" s="4"/>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21060,7 +21217,7 @@
       </c>
       <c r="G658" s="4"/>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21081,7 +21238,7 @@
       </c>
       <c r="G659" s="4"/>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21102,7 +21259,7 @@
       </c>
       <c r="G660" s="4"/>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21123,7 +21280,7 @@
       </c>
       <c r="G661" s="4"/>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21144,7 +21301,7 @@
       </c>
       <c r="G662" s="4"/>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21165,7 +21322,7 @@
       </c>
       <c r="G663" s="4"/>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21186,7 +21343,7 @@
       </c>
       <c r="G664" s="4"/>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21207,7 +21364,7 @@
       </c>
       <c r="G665" s="4"/>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21228,7 +21385,7 @@
       </c>
       <c r="G666" s="4"/>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21249,7 +21406,7 @@
       </c>
       <c r="G667" s="4"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21270,7 +21427,7 @@
       </c>
       <c r="G668" s="4"/>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21291,7 +21448,7 @@
       </c>
       <c r="G669" s="4"/>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21312,7 +21469,7 @@
       </c>
       <c r="G670" s="4"/>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21333,7 +21490,7 @@
       </c>
       <c r="G671" s="4"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21354,7 +21511,7 @@
       </c>
       <c r="G672" s="4"/>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21375,7 +21532,7 @@
       </c>
       <c r="G673" s="4"/>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21396,7 +21553,7 @@
       </c>
       <c r="G674" s="4"/>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21417,7 +21574,7 @@
       </c>
       <c r="G675" s="4"/>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21438,7 +21595,7 @@
       </c>
       <c r="G676" s="4"/>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21459,7 +21616,7 @@
       </c>
       <c r="G677" s="4"/>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21480,7 +21637,7 @@
       </c>
       <c r="G678" s="4"/>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21501,7 +21658,7 @@
       </c>
       <c r="G679" s="4"/>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21522,7 +21679,7 @@
       </c>
       <c r="G680" s="4"/>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21543,7 +21700,7 @@
       </c>
       <c r="G681" s="4"/>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21564,7 +21721,7 @@
       </c>
       <c r="G682" s="4"/>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21585,7 +21742,7 @@
       </c>
       <c r="G683" s="4"/>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21606,7 +21763,7 @@
       </c>
       <c r="G684" s="4"/>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21627,7 +21784,7 @@
       </c>
       <c r="G685" s="4"/>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21648,7 +21805,7 @@
       </c>
       <c r="G686" s="4"/>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21669,7 +21826,7 @@
       </c>
       <c r="G687" s="4"/>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21690,7 +21847,7 @@
       </c>
       <c r="G688" s="4"/>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21711,7 +21868,7 @@
       </c>
       <c r="G689" s="4"/>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21732,7 +21889,7 @@
       </c>
       <c r="G690" s="4"/>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
         <v>1155</v>
       </c>
@@ -21753,7 +21910,7 @@
       </c>
       <c r="G691" s="4"/>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21774,7 +21931,7 @@
       </c>
       <c r="G692" s="4"/>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21795,7 +21952,7 @@
       </c>
       <c r="G693" s="4"/>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21816,7 +21973,7 @@
       </c>
       <c r="G694" s="4"/>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21837,7 +21994,7 @@
       </c>
       <c r="G695" s="4"/>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21858,7 +22015,7 @@
       </c>
       <c r="G696" s="4"/>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21879,7 +22036,7 @@
       </c>
       <c r="G697" s="4"/>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21900,7 +22057,7 @@
       </c>
       <c r="G698" s="4"/>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21921,7 +22078,7 @@
       </c>
       <c r="G699" s="4"/>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21942,7 +22099,7 @@
       </c>
       <c r="G700" s="4"/>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21963,7 +22120,7 @@
       </c>
       <c r="G701" s="4"/>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21984,7 +22141,7 @@
       </c>
       <c r="G702" s="4"/>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
         <v>1560</v>
       </c>
@@ -22005,7 +22162,7 @@
       </c>
       <c r="G703" s="4"/>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
         <v>1560</v>
       </c>
@@ -22026,7 +22183,7 @@
       </c>
       <c r="G704" s="4"/>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
         <v>1560</v>
       </c>
@@ -22049,7 +22206,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
         <v>1560</v>
       </c>
@@ -22070,7 +22227,7 @@
       </c>
       <c r="G706" s="4"/>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
         <v>1560</v>
       </c>
@@ -22093,7 +22250,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
         <v>1560</v>
       </c>
@@ -22114,7 +22271,7 @@
       </c>
       <c r="G708" s="4"/>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
         <v>1560</v>
       </c>
@@ -22135,7 +22292,7 @@
       </c>
       <c r="G709" s="4"/>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
         <v>1560</v>
       </c>
@@ -22156,7 +22313,7 @@
       </c>
       <c r="G710" s="4"/>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
         <v>1560</v>
       </c>
@@ -22177,7 +22334,7 @@
       </c>
       <c r="G711" s="4"/>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22198,7 +22355,7 @@
       </c>
       <c r="G712" s="4"/>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22219,7 +22376,7 @@
       </c>
       <c r="G713" s="4"/>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22240,7 +22397,7 @@
       </c>
       <c r="G714" s="4"/>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22261,7 +22418,7 @@
       </c>
       <c r="G715" s="4"/>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22282,7 +22439,7 @@
       </c>
       <c r="G716" s="4"/>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22303,7 +22460,7 @@
       </c>
       <c r="G717" s="4"/>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22324,7 +22481,7 @@
       </c>
       <c r="G718" s="4"/>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22345,7 +22502,7 @@
       </c>
       <c r="G719" s="4"/>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22366,7 +22523,7 @@
       </c>
       <c r="G720" s="4"/>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22387,7 +22544,7 @@
       </c>
       <c r="G721" s="4"/>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22408,7 +22565,7 @@
       </c>
       <c r="G722" s="4"/>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22429,7 +22586,7 @@
       </c>
       <c r="G723" s="4"/>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22450,7 +22607,7 @@
       </c>
       <c r="G724" s="4"/>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22471,7 +22628,7 @@
       </c>
       <c r="G725" s="4"/>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22492,7 +22649,7 @@
       </c>
       <c r="G726" s="4"/>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22513,7 +22670,7 @@
       </c>
       <c r="G727" s="4"/>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22534,7 +22691,7 @@
       </c>
       <c r="G728" s="4"/>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22555,7 +22712,7 @@
       </c>
       <c r="G729" s="4"/>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22576,7 +22733,7 @@
       </c>
       <c r="G730" s="4"/>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22597,7 +22754,7 @@
       </c>
       <c r="G731" s="4"/>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22618,7 +22775,7 @@
       </c>
       <c r="G732" s="4"/>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22639,7 +22796,7 @@
       </c>
       <c r="G733" s="4"/>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22660,7 +22817,7 @@
       </c>
       <c r="G734" s="4"/>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22681,7 +22838,7 @@
       </c>
       <c r="G735" s="4"/>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22702,7 +22859,7 @@
       </c>
       <c r="G736" s="4"/>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22723,7 +22880,7 @@
       </c>
       <c r="G737" s="4"/>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22744,7 +22901,7 @@
       </c>
       <c r="G738" s="4"/>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22765,7 +22922,7 @@
       </c>
       <c r="G739" s="4"/>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22786,7 +22943,7 @@
       </c>
       <c r="G740" s="4"/>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22807,7 +22964,7 @@
       </c>
       <c r="G741" s="4"/>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22828,7 +22985,7 @@
       </c>
       <c r="G742" s="4"/>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22849,7 +23006,7 @@
       </c>
       <c r="G743" s="4"/>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22870,7 +23027,7 @@
       </c>
       <c r="G744" s="4"/>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22891,7 +23048,7 @@
       </c>
       <c r="G745" s="4"/>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22912,7 +23069,7 @@
       </c>
       <c r="G746" s="4"/>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22933,7 +23090,7 @@
       </c>
       <c r="G747" s="4"/>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22954,7 +23111,7 @@
       </c>
       <c r="G748" s="4"/>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22975,7 +23132,7 @@
       </c>
       <c r="G749" s="4"/>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
         <v>1606</v>
       </c>
@@ -22996,7 +23153,7 @@
       </c>
       <c r="G750" s="4"/>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
         <v>1606</v>
       </c>
@@ -23017,7 +23174,7 @@
       </c>
       <c r="G751" s="4"/>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
         <v>1695</v>
       </c>
@@ -23038,7 +23195,7 @@
       </c>
       <c r="G752" s="4"/>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
         <v>1695</v>
       </c>
@@ -23059,7 +23216,7 @@
       </c>
       <c r="G753" s="4"/>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
         <v>1695</v>
       </c>
@@ -23080,7 +23237,7 @@
       </c>
       <c r="G754" s="4"/>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
         <v>1695</v>
       </c>
@@ -23101,7 +23258,7 @@
       </c>
       <c r="G755" s="4"/>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
         <v>1695</v>
       </c>
@@ -23122,7 +23279,7 @@
       </c>
       <c r="G756" s="4"/>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
         <v>1695</v>
       </c>
@@ -23143,7 +23300,7 @@
       </c>
       <c r="G757" s="4"/>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
         <v>1695</v>
       </c>
@@ -23164,7 +23321,7 @@
       </c>
       <c r="G758" s="4"/>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
         <v>1712</v>
       </c>
@@ -23185,7 +23342,7 @@
       </c>
       <c r="G759" s="4"/>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
         <v>1712</v>
       </c>
@@ -23206,7 +23363,7 @@
       </c>
       <c r="G760" s="4"/>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23227,7 +23384,7 @@
       </c>
       <c r="G761" s="4"/>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23248,7 +23405,7 @@
       </c>
       <c r="G762" s="4"/>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23269,7 +23426,7 @@
       </c>
       <c r="G763" s="4"/>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23290,7 +23447,7 @@
       </c>
       <c r="G764" s="4"/>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23311,7 +23468,7 @@
       </c>
       <c r="G765" s="4"/>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23332,7 +23489,7 @@
       </c>
       <c r="G766" s="4"/>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23353,7 +23510,7 @@
       </c>
       <c r="G767" s="4"/>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23374,7 +23531,7 @@
       </c>
       <c r="G768" s="4"/>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23395,7 +23552,7 @@
       </c>
       <c r="G769" s="4"/>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23416,7 +23573,7 @@
       </c>
       <c r="G770" s="4"/>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23437,7 +23594,7 @@
       </c>
       <c r="G771" s="4"/>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23458,7 +23615,7 @@
       </c>
       <c r="G772" s="4"/>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23479,7 +23636,7 @@
       </c>
       <c r="G773" s="4"/>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23500,7 +23657,7 @@
       </c>
       <c r="G774" s="4"/>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23521,7 +23678,7 @@
       </c>
       <c r="G775" s="4"/>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23542,7 +23699,7 @@
       </c>
       <c r="G776" s="4"/>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23563,7 +23720,7 @@
       </c>
       <c r="G777" s="4"/>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23584,7 +23741,7 @@
       </c>
       <c r="G778" s="4"/>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23605,7 +23762,7 @@
       </c>
       <c r="G779" s="4"/>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23626,7 +23783,7 @@
       </c>
       <c r="G780" s="4"/>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23647,7 +23804,7 @@
       </c>
       <c r="G781" s="4"/>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23668,7 +23825,7 @@
       </c>
       <c r="G782" s="4"/>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23689,7 +23846,7 @@
       </c>
       <c r="G783" s="4"/>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23710,7 +23867,7 @@
       </c>
       <c r="G784" s="4"/>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23731,7 +23888,7 @@
       </c>
       <c r="G785" s="4"/>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23752,7 +23909,7 @@
       </c>
       <c r="G786" s="4"/>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23773,7 +23930,7 @@
       </c>
       <c r="G787" s="4"/>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23794,7 +23951,7 @@
       </c>
       <c r="G788" s="4"/>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23815,7 +23972,7 @@
       </c>
       <c r="G789" s="4"/>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23836,7 +23993,7 @@
       </c>
       <c r="G790" s="4"/>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
         <v>1719</v>
       </c>
@@ -23857,7 +24014,7 @@
       </c>
       <c r="G791" s="4"/>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
         <v>1784</v>
       </c>
@@ -23878,7 +24035,7 @@
       </c>
       <c r="G792" s="4"/>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
         <v>1784</v>
       </c>
@@ -23899,7 +24056,7 @@
       </c>
       <c r="G793" s="4"/>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
         <v>1784</v>
       </c>
@@ -23920,7 +24077,7 @@
       </c>
       <c r="G794" s="4"/>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
         <v>1784</v>
       </c>
@@ -23941,7 +24098,7 @@
       </c>
       <c r="G795" s="4"/>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
         <v>1784</v>
       </c>
@@ -23962,7 +24119,7 @@
       </c>
       <c r="G796" s="4"/>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
         <v>1784</v>
       </c>
@@ -23983,7 +24140,7 @@
       </c>
       <c r="G797" s="4"/>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24004,7 +24161,7 @@
       </c>
       <c r="G798" s="4"/>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24025,7 +24182,7 @@
       </c>
       <c r="G799" s="4"/>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24046,7 +24203,7 @@
       </c>
       <c r="G800" s="4"/>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A801" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24067,7 +24224,7 @@
       </c>
       <c r="G801" s="4"/>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24088,7 +24245,7 @@
       </c>
       <c r="G802" s="4"/>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24109,7 +24266,7 @@
       </c>
       <c r="G803" s="4"/>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24130,7 +24287,7 @@
       </c>
       <c r="G804" s="4"/>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24151,7 +24308,7 @@
       </c>
       <c r="G805" s="4"/>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24172,7 +24329,7 @@
       </c>
       <c r="G806" s="4"/>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24193,7 +24350,7 @@
       </c>
       <c r="G807" s="4"/>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24214,7 +24371,7 @@
       </c>
       <c r="G808" s="4"/>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24235,7 +24392,7 @@
       </c>
       <c r="G809" s="4"/>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24256,7 +24413,7 @@
       </c>
       <c r="G810" s="4"/>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24277,7 +24434,7 @@
       </c>
       <c r="G811" s="4"/>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24298,7 +24455,7 @@
       </c>
       <c r="G812" s="4"/>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24319,7 +24476,7 @@
       </c>
       <c r="G813" s="4"/>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24340,7 +24497,7 @@
       </c>
       <c r="G814" s="4"/>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24361,7 +24518,7 @@
       </c>
       <c r="G815" s="4"/>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24382,7 +24539,7 @@
       </c>
       <c r="G816" s="4"/>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24403,7 +24560,7 @@
       </c>
       <c r="G817" s="4"/>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24424,7 +24581,7 @@
       </c>
       <c r="G818" s="4"/>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24445,7 +24602,7 @@
       </c>
       <c r="G819" s="4"/>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
         <v>1784</v>
       </c>
@@ -24466,7 +24623,7 @@
       </c>
       <c r="G820" s="4"/>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
         <v>1844</v>
       </c>
@@ -24487,7 +24644,7 @@
       </c>
       <c r="G821" s="4"/>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
         <v>1844</v>
       </c>
@@ -24508,7 +24665,7 @@
       </c>
       <c r="G822" s="4"/>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
         <v>1844</v>
       </c>
@@ -24529,7 +24686,7 @@
       </c>
       <c r="G823" s="4"/>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
         <v>1844</v>
       </c>
@@ -24550,7 +24707,7 @@
       </c>
       <c r="G824" s="4"/>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
         <v>1844</v>
       </c>
@@ -24571,7 +24728,7 @@
       </c>
       <c r="G825" s="4"/>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
         <v>1844</v>
       </c>
@@ -24592,7 +24749,7 @@
       </c>
       <c r="G826" s="4"/>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>1844</v>
       </c>
@@ -24613,7 +24770,7 @@
       </c>
       <c r="G827" s="4"/>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>1844</v>
       </c>
@@ -24634,7 +24791,7 @@
       </c>
       <c r="G828" s="4"/>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
         <v>1844</v>
       </c>
@@ -24655,7 +24812,7 @@
       </c>
       <c r="G829" s="4"/>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>1844</v>
       </c>
@@ -24676,7 +24833,7 @@
       </c>
       <c r="G830" s="4"/>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>1844</v>
       </c>
@@ -24697,7 +24854,7 @@
       </c>
       <c r="G831" s="4"/>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
         <v>1871</v>
       </c>
@@ -24718,7 +24875,7 @@
       </c>
       <c r="G832" s="4"/>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
         <v>1871</v>
       </c>
@@ -24739,7 +24896,7 @@
       </c>
       <c r="G833" s="4"/>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
         <v>1871</v>
       </c>
@@ -24760,7 +24917,7 @@
       </c>
       <c r="G834" s="4"/>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
         <v>1871</v>
       </c>
@@ -24781,7 +24938,7 @@
       </c>
       <c r="G835" s="4"/>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
         <v>1871</v>
       </c>
@@ -24802,7 +24959,7 @@
       </c>
       <c r="G836" s="4"/>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
         <v>1887</v>
       </c>
@@ -24823,7 +24980,7 @@
       </c>
       <c r="G837" s="4"/>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
         <v>1887</v>
       </c>
@@ -24844,7 +25001,7 @@
       </c>
       <c r="G838" s="4"/>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
         <v>1887</v>
       </c>
@@ -24865,7 +25022,7 @@
       </c>
       <c r="G839" s="4"/>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
         <v>1896</v>
       </c>
@@ -24892,14 +25049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -24925,7 +25082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -24940,7 +25097,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="3" t="s">
         <v>68</v>
       </c>
